--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7749708-60B3-4CEB-BEB2-BFDE73D1F7F6}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B68E3C36-4C2F-4989-BFF5-44FCBC11E5F1}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="225" windowWidth="28800" windowHeight="11835" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
+    <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Acceptance criteria</t>
   </si>
   <si>
-    <t>vragen</t>
+    <t>vragen/notities</t>
   </si>
   <si>
     <t>Implementatie NMEA</t>
@@ -72,21 +72,81 @@
     <t>Een paar voorbeelden(actuator en sensor)  van hoe informatie omgezet wordt naar NMEA</t>
   </si>
   <si>
-    <t>Ik wil graag een component kunnen invoegen dat werkt als een USB (plug and play)</t>
-  </si>
-  <si>
-    <t>Onderzoek doen naar geschikte microcontrollers voor de kern en componenten</t>
+    <t>Communicatie tussen de onderdelen(het netwerk zelf)</t>
+  </si>
+  <si>
+    <t>Ik wil dat de informatie van de sensor door gestuurd wordt naar het netwerk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onderzoek naar geschikt communicatie systeem/Netwerk(SPI, UART, I2C, CAN,  Ethernet) - Prototype simpele ethernet connectie met NMEA protocol realiseren </t>
+  </si>
+  <si>
+    <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
+  </si>
+  <si>
+    <t>Wat zijn de eisen voor de robuustheid, later bespreken</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>componenten moet zelf acties kunnen uitvoeren</t>
+  </si>
+  <si>
+    <t>Ik wil dat componenten smart zijn en gegevens kunnen verwerken(gestuurde/gemeten data)</t>
+  </si>
+  <si>
+    <t>Onderzoek doen naar geschikte microcontrollers voor de componenten</t>
+  </si>
+  <si>
+    <t>Componenten moeten op dit netwerk aangesloten kunnen worden. Alle componenten moeten NMEA berichten naar het netwerk kunnen sturen en die van elkaar kunnen lezen.</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>componenten moeten hun sensoren kunnen uitlezen</t>
+  </si>
+  <si>
+    <t>Ik wil graag dat de componenten de senoren kunnen uitlezen</t>
+  </si>
+  <si>
+    <t>Onderzoek NMEA sensoren, Onderzoek PWM-signaal, Onderzoek analoge sensor</t>
+  </si>
+  <si>
+    <t>De microcontroller kan de sensoren uitlezen en weergeven(Bijvoor op de latop)</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>componenten moeten op het netwerk aangesloten kunnen worden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ik wil dat de componenten op het netwerk kunnen worden aangesloten en met elkaar kunnen comuniceren</t>
+  </si>
+  <si>
+    <t>Onderzoek doen naar  Netwerk verbindingen voor de microcontroller. Netwerk opstellen</t>
+  </si>
+  <si>
+    <t>Het moet een TCP verbinding zijn over Ethernet, de berichtgevening moet volgens het NMEA protecol zijn.</t>
   </si>
   <si>
     <t>Datalogging</t>
   </si>
   <si>
-    <t>Ik wil graag dat de informatie opgeslagen wordt, zodat we dit later terug kunnen lezen</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Ik wil graag dat de informatie opgeslagen wordt, zodat we dit later terug kunnen lezen, ik wil dat dit een los compont wordt dat mee luisterd op het netwerk.</t>
   </si>
   <si>
     <t>Onderzoek waar we de data op kunnen slaan, onderzoek naar hoe we data snel kunnen verwerken(naar de bestuurder terug sturen)</t>
   </si>
   <si>
+    <t>Dit moet een component worden die op het netwerk aangesloten kan worden</t>
+  </si>
+  <si>
     <t>Het systeem kan de status van componenten bijhouden</t>
   </si>
   <si>
@@ -96,16 +156,19 @@
     <t>Zorgen dat componenten aangesloten zijn op een statussensor en dat die de juiste signalen doorgeeft bij een defect</t>
   </si>
   <si>
-    <t>De kern moet weten wat hij moet doen met de informatie van het zojuist aangesloten component</t>
-  </si>
-  <si>
-    <t>Ik wil dat het systeem onderscheid kan maken in de verschillende data en signalen die binnen komen en deze naar de juist plek stuurt of opslaat</t>
-  </si>
-  <si>
-    <t>Er moet iets komen die deze componenten onderverdeeld in categoriën verdeeld om informatie te sorteren</t>
-  </si>
-  <si>
-    <t>Het component moet in de juiste categorie worden ingedeeld, aan de hand van die categorie weten we wat er met die informatie moet gebeuren</t>
+    <t>Het component zal zelf aangeven als het niet meer werkt naar behoren.</t>
+  </si>
+  <si>
+    <t>Interface voor besturing</t>
+  </si>
+  <si>
+    <t>Ik wil dat het systeem de actuoren kan aansturen aan de hand van binnen komende signalen van zowel binnen en buiten systeem, later zouden we dit misschien door een autopilot willen laten doen</t>
+  </si>
+  <si>
+    <t>Het maken van een interface over welke/watvoor berrichten er gestuurd kunnen worden.</t>
+  </si>
+  <si>
+    <t>Er moet interface zijn voor: een component dat in staat is om commando in het netwerk te sturen, (die uitgevoerd worden door actuatorcomponenten)</t>
   </si>
   <si>
     <t>Het systeem moet verder gebouwd worden op het systeem wat al is gemaakt</t>
@@ -120,62 +183,23 @@
     <t>We snappen de oude opleversets en kunnen hier verder op bouwen.</t>
   </si>
   <si>
-    <t>Ik wil dat de informatie van de sensor door gestuurd wordt naar het netwerk</t>
-  </si>
-  <si>
-    <t>Communicatie tussen de onderdelen(het netwerk zelf)</t>
-  </si>
-  <si>
-    <t>componenten moeten op het netwerk aangesloten kunnen worden</t>
-  </si>
-  <si>
-    <t>Dit moet een component worden die op het netwerk aangesloten kan worden</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Het component zal zelf aangeven als het niet meer werkt naar behoren.</t>
-  </si>
-  <si>
-    <t>Interface voor besturing</t>
-  </si>
-  <si>
-    <t>Componenten moeten op dit netwerk aangesloten kunnen worden. Alle componenten moeten NMEA berichten naar het netwerk kunnen sturen en die van elkaar kunnen lezen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onderzoek naar geschikt communicatie systeem/Netwerk(SPI, UART, I2C, CAN,  Ethernet) - Prototype simpele ethernet connectie met NMEA protocol realiseren </t>
-  </si>
-  <si>
-    <t>Ik wil dat het systeem de actuoren kan aansturen aan de hand van binnen komende signalen van zowel binnen en buiten systeem, later zouden we dit misschien door een autopilot willen laten doen</t>
-  </si>
-  <si>
-    <t>Het maken van een interface over welke/watvoor berrichten er gestuurd kunnen worden.</t>
-  </si>
-  <si>
-    <t>Er moet interface zijn voor: een component dat in staat is om commando in het netwerk te sturen, (die uitgevoerd worden door actuatorcomponenten)</t>
-  </si>
-  <si>
-    <t>dit is opgegaan in 7</t>
-  </si>
-  <si>
-    <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
-  </si>
-  <si>
-    <t>dit is opgegaan in 3</t>
-  </si>
-  <si>
-    <t>Wat zijn de eisen voor de robuustheid</t>
-  </si>
-  <si>
-    <t>Elk component heeft een microcontroller</t>
+    <t>Er is een functionele compositie gemaakt om alle functies te vertonen</t>
+  </si>
+  <si>
+    <t>Als opdracht gever wil ik graag dat er een functioneel decompositie verslag wordt gemaakt.</t>
+  </si>
+  <si>
+    <t>Zorgen dat het document Functionele Decompositie word gemaakt waar duidelijk alle functies die van toepassing staan</t>
+  </si>
+  <si>
+    <t>Alle functies en data leveranciers/vragen zijn te vinden in de decompositie, alle vertakkingen zijn uitgewerkt zodat er duidelijk wordt waar verstoringen zitten en wat de verschillende eisen van componenten zijn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +240,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +277,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,14 +298,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,13 +344,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,11 +683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -636,7 +698,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,20 +721,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -680,169 +742,198 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -853,7 +944,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -864,7 +955,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -875,7 +966,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -886,7 +977,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -897,24 +988,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -925,7 +1007,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -936,7 +1018,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -947,7 +1029,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -958,7 +1040,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -969,7 +1051,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -980,7 +1062,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -991,7 +1073,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1002,7 +1084,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1013,7 +1095,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1024,7 +1106,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1035,7 +1117,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1046,7 +1128,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1057,7 +1139,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1068,7 +1150,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1079,7 +1161,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1090,7 +1172,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1101,7 +1183,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1109,7 +1191,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1117,7 +1199,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1125,7 +1207,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1133,7 +1215,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1141,7 +1223,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1149,7 +1231,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1157,7 +1239,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B68E3C36-4C2F-4989-BFF5-44FCBC11E5F1}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A71402-4DA1-41EE-822E-D438FF356651}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -84,9 +84,6 @@
     <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
   </si>
   <si>
-    <t>Wat zijn de eisen voor de robuustheid, later bespreken</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -193,13 +190,19 @@
   </si>
   <si>
     <t>Alle functies en data leveranciers/vragen zijn te vinden in de decompositie, alle vertakkingen zijn uitgewerkt zodat er duidelijk wordt waar verstoringen zitten en wat de verschillende eisen van componenten zijn</t>
+  </si>
+  <si>
+    <t>Wat zijn de eisen voor de robuustheid, later bespreken, experimenteel onderzoek</t>
+  </si>
+  <si>
+    <t>Literatuur onderzoek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -286,6 +283,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,8 +306,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -335,22 +338,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -359,17 +359,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,11 +686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -698,7 +701,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -721,14 +724,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -742,253 +745,251 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75">
-      <c r="A3" s="16">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="90">
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="60">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -996,51 +997,51 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1051,7 +1052,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1062,7 +1063,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1073,7 +1074,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1084,7 +1085,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1095,7 +1096,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1106,7 +1107,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1117,7 +1118,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1139,7 +1140,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1150,7 +1151,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1161,7 +1162,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1172,7 +1173,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1183,7 +1184,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1191,7 +1192,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1199,7 +1200,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1207,7 +1208,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1215,7 +1216,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1223,7 +1224,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1231,7 +1232,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1239,7 +1240,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A71402-4DA1-41EE-822E-D438FF356651}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17481EC-D588-414E-906B-332AD989D565}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -84,6 +84,9 @@
     <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
   </si>
   <si>
+    <t>Wat zijn de eisen voor de robuustheid, later bespreken, experimenteel onderzoek</t>
+  </si>
+  <si>
     <t>3a</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t>Componenten moeten op dit netwerk aangesloten kunnen worden. Alle componenten moeten NMEA berichten naar het netwerk kunnen sturen en die van elkaar kunnen lezen.</t>
   </si>
   <si>
+    <t>Literatuur onderzoek</t>
+  </si>
+  <si>
     <t>3b</t>
   </si>
   <si>
@@ -159,7 +165,7 @@
     <t>Interface voor besturing</t>
   </si>
   <si>
-    <t>Ik wil dat het systeem de actuoren kan aansturen aan de hand van binnen komende signalen van zowel binnen en buiten systeem, later zouden we dit misschien door een autopilot willen laten doen</t>
+    <t>Ik wil dat het systeem de actuatoren kan aansturen aan de hand van binnen komende signalen van zowel binnen en buiten systeem, later zouden we dit misschien door een autopilot willen laten doen</t>
   </si>
   <si>
     <t>Het maken van een interface over welke/watvoor berrichten er gestuurd kunnen worden.</t>
@@ -190,19 +196,13 @@
   </si>
   <si>
     <t>Alle functies en data leveranciers/vragen zijn te vinden in de decompositie, alle vertakkingen zijn uitgewerkt zodat er duidelijk wordt waar verstoringen zitten en wat de verschillende eisen van componenten zijn</t>
-  </si>
-  <si>
-    <t>Wat zijn de eisen voor de robuustheid, later bespreken, experimenteel onderzoek</t>
-  </si>
-  <si>
-    <t>Literatuur onderzoek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,10 +369,10 @@
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
-    <cellStyle name="Goed" xfId="4" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +687,10 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -701,7 +701,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="75">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -765,180 +765,180 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="90">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1192,7 +1192,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1208,7 +1208,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1224,7 +1224,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1232,7 +1232,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1240,7 +1240,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17481EC-D588-414E-906B-332AD989D565}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EA6BA2-938F-4464-82F4-E0A99D19B77D}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Ik wil graag dat de interne communicatie via het NMEA protecol gaat.</t>
   </si>
   <si>
-    <t>Onderzoek naar het NMEA , onderzoek naar informatie van actuator en sensor</t>
-  </si>
-  <si>
     <t>Een paar voorbeelden(actuator en sensor)  van hoe informatie omgezet wordt naar NMEA</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Ik wil graag dat de componenten de senoren kunnen uitlezen</t>
   </si>
   <si>
-    <t>Onderzoek NMEA sensoren, Onderzoek PWM-signaal, Onderzoek analoge sensor</t>
-  </si>
-  <si>
     <t>De microcontroller kan de sensoren uitlezen en weergeven(Bijvoor op de latop)</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t xml:space="preserve"> Ik wil dat de componenten op het netwerk kunnen worden aangesloten en met elkaar kunnen comuniceren</t>
   </si>
   <si>
-    <t>Onderzoek doen naar  Netwerk verbindingen voor de microcontroller. Netwerk opstellen</t>
-  </si>
-  <si>
     <t>Het moet een TCP verbinding zijn over Ethernet, de berichtgevening moet volgens het NMEA protecol zijn.</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>Ik wil dat het systeem de actuatoren kan aansturen aan de hand van binnen komende signalen van zowel binnen en buiten systeem, later zouden we dit misschien door een autopilot willen laten doen</t>
   </si>
   <si>
-    <t>Het maken van een interface over welke/watvoor berrichten er gestuurd kunnen worden.</t>
-  </si>
-  <si>
     <t>Er moet interface zijn voor: een component dat in staat is om commando in het netwerk te sturen, (die uitgevoerd worden door actuatorcomponenten)</t>
   </si>
   <si>
@@ -196,13 +184,32 @@
   </si>
   <si>
     <t>Alle functies en data leveranciers/vragen zijn te vinden in de decompositie, alle vertakkingen zijn uitgewerkt zodat er duidelijk wordt waar verstoringen zitten en wat de verschillende eisen van componenten zijn</t>
+  </si>
+  <si>
+    <t>Wat voor status moet er worden bijgehouden?</t>
+  </si>
+  <si>
+    <t>Overleg met andere Aquabots groep.
+Het maken van een interface over welke/watvoor berrichten er gestuurd kunnen worden voor roer en motoren.</t>
+  </si>
+  <si>
+    <t>Onderzoek NMEA sensoren, 
+Onderzoek PWM-signaal</t>
+  </si>
+  <si>
+    <t>Onderzoek naar het NMEA , 
+onderzoek naar informatie van actuator en sensor</t>
+  </si>
+  <si>
+    <t>Onderzoek doen naar  Netwerk verbindingen voor de microcontroller. 
+Netwerk opstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,10 +376,10 @@
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -686,11 +693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -701,7 +708,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1">
+    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -737,208 +744,210 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="75">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="90">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -949,7 +958,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -960,7 +969,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -971,7 +980,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -980,7 +989,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -989,7 +998,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -997,7 +1006,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1008,7 +1017,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1019,7 +1028,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1030,7 +1039,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1041,7 +1050,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1052,7 +1061,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1063,7 +1072,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1074,7 +1083,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1085,7 +1094,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1096,7 +1105,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1107,7 +1116,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1118,7 +1127,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1129,7 +1138,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1151,7 +1160,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1162,7 +1171,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1184,7 +1193,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1192,7 +1201,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1200,7 +1209,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1208,7 +1217,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1216,7 +1225,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1224,7 +1233,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1232,7 +1241,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1240,7 +1249,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EA6BA2-938F-4464-82F4-E0A99D19B77D}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E463AB1-CCFA-479C-B3CA-DA470ED97639}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Datalogging</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Ik wil graag dat de informatie opgeslagen wordt, zodat we dit later terug kunnen lezen, ik wil dat dit een los compont wordt dat mee luisterd op het netwerk.</t>
@@ -203,24 +200,33 @@
   <si>
     <t>Onderzoek doen naar  Netwerk verbindingen voor de microcontroller. 
 Netwerk opstellen</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>is van Should naar Would gegaan</t>
+  </si>
+  <si>
+    <t>Er is een gebruikersonderzoek samengesteld om de tevredenheid van de PO's te waarborgen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Een gebruikersonderzoek maken en zo in kaart zetten wat de PO ervan vind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -308,15 +308,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -324,19 +323,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -345,38 +341,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
-    <cellStyle name="Goed" xfId="4" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="Goed" xfId="3" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -693,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,20 +727,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -753,22 +748,22 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -776,19 +771,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -799,20 +794,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -820,20 +815,20 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
@@ -841,88 +836,90 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -931,75 +928,83 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
@@ -1007,51 +1012,51 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
@@ -1062,7 +1067,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
@@ -1073,7 +1078,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
@@ -1084,7 +1089,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
@@ -1095,7 +1100,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
@@ -1106,7 +1111,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
@@ -1117,7 +1122,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
@@ -1128,7 +1133,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
@@ -1139,7 +1144,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
@@ -1150,7 +1155,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
@@ -1161,7 +1166,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E463AB1-CCFA-479C-B3CA-DA470ED97639}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5B24AB-ADC3-4802-896C-3A454C47EAA0}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Onderzoek naar geschikt communicatie systeem/Netwerk(SPI, UART, I2C, CAN,  Ethernet) - Prototype simpele ethernet connectie met NMEA protocol realiseren </t>
   </si>
   <si>
-    <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
-  </si>
-  <si>
     <t>Wat zijn de eisen voor de robuustheid, later bespreken, experimenteel onderzoek</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
   </si>
   <si>
     <t>Alle functies en data leveranciers/vragen zijn te vinden in de decompositie, alle vertakkingen zijn uitgewerkt zodat er duidelijk wordt waar verstoringen zitten en wat de verschillende eisen van componenten zijn</t>
-  </si>
-  <si>
-    <t>Wat voor status moet er worden bijgehouden?</t>
   </si>
   <si>
     <t>Overleg met andere Aquabots groep.
@@ -215,6 +209,10 @@
   </si>
   <si>
     <t>Een gebruikersonderzoek maken en zo in kaart zetten wat de PO ervan vind</t>
+  </si>
+  <si>
+    <t>De berichten zijn volgens het NMEA protocol, Maximale latency 20ms van het eene component naar het ander component. 
+Dit netwerk moet robuust zijn:{stevig, spatwater overleg PO concreete eisen}</t>
   </si>
 </sst>
 </file>
@@ -288,13 +286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -308,11 +306,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -362,15 +361,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Goed" xfId="3" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -760,78 +760,78 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -840,22 +840,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -863,42 +863,40 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -907,19 +905,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -928,19 +926,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -949,16 +947,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>

--- a/Documenten/productbacklog.xlsx
+++ b/Documenten/productbacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5B24AB-ADC3-4802-896C-3A454C47EAA0}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2A7EF1-F555-44DC-B5F1-7E89F6C9D2B8}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,13 +922,13 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
